--- a/PACT Analysis.xlsx
+++ b/PACT Analysis.xlsx
@@ -97,7 +97,7 @@
     <t>Affiliation: parent, teacher</t>
   </si>
   <si>
-    <t>Persona:  wants to distract children, watns to teach children</t>
+    <t>Persona:  wants to monitor childrens' performance, wants to teach children agrictulture</t>
   </si>
   <si>
     <t>Physical Aspects: no mental or physical issues</t>
@@ -380,7 +380,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="51.25"/>
+    <col customWidth="1" min="1" max="1" width="65.0"/>
     <col customWidth="1" min="2" max="2" width="28.0"/>
     <col customWidth="1" min="3" max="3" width="11.63"/>
     <col customWidth="1" min="4" max="4" width="20.25"/>

--- a/PACT Analysis.xlsx
+++ b/PACT Analysis.xlsx
@@ -73,7 +73,7 @@
     <t>bluetooth</t>
   </si>
   <si>
-    <t>Physical Aspects: 140  ~ 185 cm in height, no problems or disorders</t>
+    <t>Physical Aspects: 140  ~ 185 cm in height, no physical or mental problems, understands the english language</t>
   </si>
   <si>
     <t>change theme based on time</t>
@@ -97,7 +97,7 @@
     <t>Affiliation: parent, teacher</t>
   </si>
   <si>
-    <t>Persona:  wants to monitor childrens' performance, wants to teach children agrictulture</t>
+    <t>Persona:  wants to monitor childrens' performance, wants to teach children agrictulture, understands the english language</t>
   </si>
   <si>
     <t>Physical Aspects: no mental or physical issues</t>
@@ -380,7 +380,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="65.0"/>
+    <col customWidth="1" min="1" max="1" width="90.75"/>
     <col customWidth="1" min="2" max="2" width="28.0"/>
     <col customWidth="1" min="3" max="3" width="11.63"/>
     <col customWidth="1" min="4" max="4" width="20.25"/>
